--- a/biology/Zoologie/Cercopoidea/Cercopoidea.xlsx
+++ b/biology/Zoologie/Cercopoidea/Cercopoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cercopoidea forment une super-famille d'insectes hémiptères, du sous-ordre des Auchenorrhyncha et de l'infra-ordre des Cicadomorpha. Traditionnellement, la plus grande partie de cette super-famille était considérée comme une seule et même famille, les Cercopidae (les cercopes), mais cette famille a été découpée maintenant en trois familles séparées : les Aphrophoridae, les Cercopidae et les Clastopteridae.
 Ces familles sont connues pour leurs stades larvaires, caractérisés par un enrobage mousseux issu des plantes, appelé « écume printanière » et ressemblant à un crachat (en France et en Belgique francophone, elle est surnommée « crachat de coucou »; au Canada, « crachat de crapaud » ou, plus familièrement, « bave de crapaud »). Cette mousse a plusieurs fonctions. Elle dissimule la larve des prédateurs et des parasites, elle l'isole du chaud et du froid, lui procurant ainsi un contrôle thermique, ainsi qu'une défense contre les moisissures. Sans cette mousse, la larve se dessècherait rapidement. Les larves perforent la plante et aspirent la sève, provoquant des dommages et une bonne partie des fluides filtrés excédentaires servent à la production de la mousse, qui ayant une saveur âcre, repousse les prédateurs. Un certain nombre d'espèces sont très nuisibles pour l'agriculture.
@@ -513,9 +525,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (29 avril 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (29 avril 2018) :
 Aphrophoridae Amyot &amp; Serville, 1843
 Cercopidae Westwood, 1838
 Clastopteridae Dohrn, 1859
